--- a/data/processed/state_overviews/new-hampshire_overview.xlsx
+++ b/data/processed/state_overviews/new-hampshire_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>663</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Belknap County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>29</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>55</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Cheshire County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>39</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Coos County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>18</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Grafton County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>75</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Hillsborough County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>162</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Merrimack County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>118</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Rockingham County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>101</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Strafford County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>48</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Sullivan County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>18</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -755,6 +777,38 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>61.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$1,133,383,584</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.55%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-7.39%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>62.90%</t>
         </is>
       </c>
     </row>
@@ -809,8 +863,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>319</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -839,8 +895,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>344</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -869,8 +927,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B4">
-        <v>663</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,8 +1004,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>227</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -974,8 +1036,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>176</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1004,8 +1068,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>113</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1034,8 +1100,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>27</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,8 +1132,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>95</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1094,8 +1164,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>25</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1124,8 +1196,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>663</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1199,8 +1273,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>54</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1229,8 +1305,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>86</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1259,8 +1337,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>36</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1289,8 +1369,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>64</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1319,8 +1401,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1349,8 +1433,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>211</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1379,8 +1465,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1409,8 +1497,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>40</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1439,8 +1529,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>6</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1469,8 +1561,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>150</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1499,8 +1593,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>9</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1529,8 +1625,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>663</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/new-hampshire_overview.xlsx
+++ b/data/processed/state_overviews/new-hampshire_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,219 +431,219 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Belknap County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$11,058,626</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.78%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>44.83%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>663</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$19,490,173</t>
+          <t>$1,133,383,584</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.35%</t>
+          <t>10.55%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-2.36%</t>
+          <t>-7.39%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>56.36%</t>
+          <t>62.90%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cheshire County</t>
+          <t>Belknap County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$45,943,451</t>
+          <t>$11,058,626</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.71%</t>
+          <t>12.78%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-7.58%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>44.83%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Coos County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$46,524,474</t>
+          <t>$19,490,173</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.52%</t>
+          <t>15.35%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-27.19%</t>
+          <t>-2.36%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>56.36%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Grafton County</t>
+          <t>Cheshire County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$298,933,446</t>
+          <t>$45,943,451</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.48%</t>
+          <t>12.71%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-1.82%</t>
+          <t>-7.58%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58.67%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hillsborough County</t>
+          <t>Coos County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$407,439,385</t>
+          <t>$46,524,474</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>8.52%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-10.30%</t>
+          <t>-27.19%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -655,160 +655,192 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Merrimack County</t>
+          <t>Grafton County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$165,086,443</t>
+          <t>$298,933,446</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.37%</t>
+          <t>10.48%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-13.16%</t>
+          <t>-1.82%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>67.80%</t>
+          <t>58.67%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rockingham County</t>
+          <t>Hillsborough County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$62,471,837</t>
+          <t>$407,439,385</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.93%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-4.80%</t>
+          <t>-10.30%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>59.41%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Strafford County</t>
+          <t>Merrimack County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$67,164,393</t>
+          <t>$165,086,443</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.72%</t>
+          <t>6.37%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-6.79%</t>
+          <t>-13.16%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64.58%</t>
+          <t>67.80%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sullivan County</t>
+          <t>Rockingham County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$9,271,356</t>
+          <t>$62,471,837</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>13.93%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-1.91%</t>
+          <t>-4.80%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.11%</t>
+          <t>59.41%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Strafford County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,133,383,584</t>
+          <t>$67,164,393</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.55%</t>
+          <t>14.72%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-7.39%</t>
+          <t>-6.79%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>62.90%</t>
+          <t>64.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sullivan County</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$9,271,356</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.71%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-1.91%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>61.11%</t>
         </is>
       </c>
     </row>
@@ -819,7 +851,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -828,128 +860,160 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$495,923,217</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.76%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-7.71%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>New Hampshire</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>663</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$637,460,367</t>
+          <t>$1,133,383,584</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.39%</t>
+          <t>10.55%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-7.39%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62.21%</t>
+          <t>62.90%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>319</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,133,383,584</t>
+          <t>$495,923,217</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.55%</t>
+          <t>10.76%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-7.39%</t>
+          <t>-7.71%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.90%</t>
+          <t>63.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2nd Congressional district</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$637,460,367</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.39%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-7.00%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>62.21%</t>
         </is>
       </c>
     </row>
@@ -974,34 +1038,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1033,128 +1097,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$130,239,318</t>
+          <t>$896,868,088</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.24%</t>
+          <t>5.26%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.72%</t>
+          <t>-3.00%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.93%</t>
+          <t>65.26%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$31,835,568</t>
+          <t>$130,239,318</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>13.24%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-12.41%</t>
+          <t>-6.72%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.26%</t>
+          <t>61.93%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$50,104,415</t>
+          <t>$31,835,568</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.97%</t>
+          <t>10.96%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.91%</t>
+          <t>-12.41%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59.26%</t>
+          <t>67.26%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$896,868,088</t>
+          <t>$50,104,415</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.26%</t>
+          <t>9.97%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>-8.91%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>65.26%</t>
+          <t>59.26%</t>
         </is>
       </c>
     </row>
@@ -1243,34 +1307,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1302,7 +1366,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1334,7 +1398,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1366,7 +1430,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1430,7 +1494,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1462,7 +1526,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1494,7 +1558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1526,7 +1590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1558,64 +1622,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$494,942,147</t>
+          <t>$271,890,686</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.40%</t>
+          <t>9.63%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-8.72%</t>
+          <t>-1.15%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.33%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$271,890,686</t>
+          <t>$494,942,147</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.63%</t>
+          <t>10.40%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>-8.72%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>65.33%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/new-hampshire_overview.xlsx
+++ b/data/processed/state_overviews/new-hampshire_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>62.90%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>663</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,133,383,584</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>10.55%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-7.39%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.90%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>62.90%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>663</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,133,383,584</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.55%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-7.39%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>62.90%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>44.83%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$11,058,626</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.78%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.76%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>44.83%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>56.36%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$19,490,173</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>15.35%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-2.36%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>56.36%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$45,943,451</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>12.71%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-7.58%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$46,524,474</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.52%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-27.19%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>58.67%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$298,933,446</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.48%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-1.82%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>58.67%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>162</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$407,439,385</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.25%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-10.30%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>67.80%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>118</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$165,086,443</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>6.37%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-13.16%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>67.80%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>59.41%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>101</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$62,471,837</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>13.93%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-4.80%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>59.41%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>64.58%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$67,164,393</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>14.72%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-6.79%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>64.58%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>61.11%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$9,271,356</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>14.71%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-1.91%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>61.11%</t>
         </is>
       </c>
     </row>
@@ -865,27 +865,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -897,27 +897,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -929,91 +929,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>62.90%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>663</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,133,383,584</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.55%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-7.39%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>62.90%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>319</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$495,923,217</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.76%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-7.71%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>62.21%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>344</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$637,460,367</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>10.39%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-7.00%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>62.21%</t>
         </is>
       </c>
     </row>
@@ -1038,187 +1038,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>63.00%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>227</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$23,135,877</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.57%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-11.49%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>63.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>61.93%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$896,868,088</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.26%</t>
+          <t>$130,239,318</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-3.00%</t>
+          <t>13.24%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.26%</t>
+          <t>-6.72%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>67.26%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$130,239,318</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.24%</t>
+          <t>$31,835,568</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-6.72%</t>
+          <t>10.96%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.93%</t>
+          <t>-12.41%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>59.26%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$31,835,568</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>$50,104,415</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-12.41%</t>
+          <t>9.97%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.26%</t>
+          <t>-8.91%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>65.26%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$50,104,415</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.97%</t>
+          <t>$896,868,088</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.91%</t>
+          <t>5.26%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>59.26%</t>
+          <t>-3.00%</t>
         </is>
       </c>
     </row>
@@ -1230,27 +1230,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>44.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,200,318</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>28.69%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.38%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>44.00%</t>
         </is>
       </c>
     </row>
@@ -1262,27 +1262,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>62.90%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>663</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,133,383,584</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.55%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-7.39%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>62.90%</t>
         </is>
       </c>
     </row>
@@ -1307,155 +1307,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>51.85%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$10,875,853</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>23.59%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-0.26%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>51.85%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>63.95%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$60,703,868</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.44%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-13.09%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>63.95%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$5,010,754</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>30.15%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>20.72%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>76.56%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$102,493,282</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>10.26%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-11.81%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>76.56%</t>
         </is>
       </c>
     </row>
@@ -1467,219 +1467,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$1,176,777</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-5.63%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-12.68%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>67.30%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>211</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$157,151,757</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.37%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-11.10%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>67.30%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$171,352</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>15.31%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.12%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>55.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$28,513,999</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>18.30%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-0.30%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>55.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$453,109</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>29.21%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>11.80%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>65.33%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$271,890,686</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.63%</t>
+          <t>$494,942,147</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-1.15%</t>
+          <t>10.40%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>-8.72%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$494,942,147</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.40%</t>
+          <t>$271,890,686</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-8.72%</t>
+          <t>9.63%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>65.33%</t>
+          <t>-1.15%</t>
         </is>
       </c>
     </row>
@@ -1691,27 +1691,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>62.90%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>663</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,133,383,584</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.55%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-7.39%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>62.90%</t>
         </is>
       </c>
     </row>
